--- a/security/checklist_security-lab3.xlsx
+++ b/security/checklist_security-lab3.xlsx
@@ -131,6 +131,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (      ) (chỉ copy giá trị trong ngoặc , không bao gồm dấu ngoặc
@@ -160,6 +166,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
@@ -197,6 +209,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
@@ -234,6 +252,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
@@ -343,6 +367,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (ABCDE) (chỉ copy giá trị trong ngoặc , không bao gồm dấu ngoặc
@@ -699,16 +729,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1877,7 +1907,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomLeft" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4351851851852" defaultRowHeight="15.75" customHeight="1"/>
